--- a/дисертация/изыскания/W/iteration 2.xlsx
+++ b/дисертация/изыскания/W/iteration 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="первичное сравнение" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>w=2; l=1250</t>
   </si>
@@ -74,12 +74,42 @@
   <si>
     <t>старая</t>
   </si>
+  <si>
+    <t>Диаметр</t>
+  </si>
+  <si>
+    <t>Θ</t>
+  </si>
+  <si>
+    <t>P_крит_марутов</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>коэффициент степени</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>моя(итерация 2)</t>
+  </si>
+  <si>
+    <t>мой результат</t>
+  </si>
+  <si>
+    <t>ansys</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +120,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -172,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,6 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7476,33 +7513,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'повторный анализ'!$H$20:$H$27</c:f>
+              <c:f>'повторный анализ'!$L$20:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>256.48258862344738</c:v>
+                  <c:v>570.0172316544797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.10264574754797</c:v>
+                  <c:v>794.9070253972136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271.64283594510766</c:v>
+                  <c:v>1202.0939927150077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>281.21113415534796</c:v>
+                  <c:v>1875.363547261009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>291.19094434253816</c:v>
+                  <c:v>2926.3913086596021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>299.65634222507623</c:v>
+                  <c:v>4210.0802641925957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>313.59652963309838</c:v>
+                  <c:v>7475.2952463940564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>324.91329450511751</c:v>
+                  <c:v>11670.795255533611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7696,6 +7733,623 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>марутов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$I$38:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20741.015622912884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30056.512761673675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42694.084581957126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57829.5127609435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96606.145571637026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BA6-4B80-B50C-54A582949FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>мое</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$N$38:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21033.529559640076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29790.114257290435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40826.519395998068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54449.659218077337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90731.301071118665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BA6-4B80-B50C-54A582949FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ansys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$O$38:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0BA6-4B80-B50C-54A582949FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="546434056"/>
+        <c:axId val="546434384"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>коэффициент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$J$38:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0989443959144722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3201449606907225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7439214551162996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3056562227018906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6939515105564911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BA6-4B80-B50C-54A582949FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="637986024"/>
+        <c:axId val="637987336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="546434056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="43"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546434384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="546434384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546434056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="637987336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637986024"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="637986024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637987336"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8185,33 +8839,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'первичное сравнение'!$H$44:$H$51</c:f>
+              <c:f>'первичное сравнение'!$K$44:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>139.84339212306</c:v>
+                  <c:v>10.4306220095693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.16954781684899</c:v>
+                  <c:v>11.201117318435699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.780672346839</c:v>
+                  <c:v>11.445054945054901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.746475590112</c:v>
+                  <c:v>12.4556962025316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.97940555206199</c:v>
+                  <c:v>7.0714285714285703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143.10400278395699</c:v>
+                  <c:v>7.5833333333333304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143.35547532669199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145.387855039388</c:v>
+                  <c:v>7.9696969696969697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8264,6 +8915,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2484689413823273E-3"/>
+                  <c:y val="0.45998323126275881"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'первичное сравнение'!$G$44:$G$51</c:f>
@@ -8299,7 +9000,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'первичное сравнение'!$I$44:$I$51</c:f>
+              <c:f>'первичное сравнение'!$J$44:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8532,6 +9233,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="450915376"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -22406,6 +23108,46 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26378,6 +27120,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31473,15 +32731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31495,6 +32753,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31835,10 +33123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J412"/>
+  <dimension ref="A1:K412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44:I51"/>
+    <sheetView topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32172,7 +33460,7 @@
         <v>27.509728380211548</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.34651162790697598</v>
       </c>
@@ -32184,7 +33472,7 @@
         <v>27.495300447356293</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.34883720930232498</v>
       </c>
@@ -32196,7 +33484,7 @@
         <v>27.46658926349641</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.35</v>
       </c>
@@ -32208,7 +33496,7 @@
         <v>27.452305370171445</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35232558139534798</v>
       </c>
@@ -32220,7 +33508,7 @@
         <v>27.42387939884253</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.35348837209302297</v>
       </c>
@@ -32232,7 +33520,7 @@
         <v>27.4097366974711</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.35465116279069703</v>
       </c>
@@ -32244,7 +33532,7 @@
         <v>27.395640441836413</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.35581395348837203</v>
       </c>
@@ -32256,7 +33544,7 @@
         <v>27.381590327873891</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.35697674418604602</v>
       </c>
@@ -32268,7 +33556,7 @@
         <v>27.367586054495163</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.36046511627906902</v>
       </c>
@@ -32280,7 +33568,7 @@
         <v>27.325845310811776</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.36279069767441802</v>
       </c>
@@ -32292,7 +33580,7 @@
         <v>27.298241961771051</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.36395348837209301</v>
       </c>
@@ -32304,7 +33592,7 @@
         <v>27.284506570904572</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.36627906976744101</v>
       </c>
@@ -32318,17 +33606,14 @@
       <c r="G44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H44">
-        <v>139.84339212306</v>
-      </c>
-      <c r="I44">
+      <c r="J44">
         <v>13.8536585365853</v>
       </c>
-      <c r="J44">
-        <v>35.7615516257843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>10.4306220095693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.36744186046511601</v>
       </c>
@@ -32342,17 +33627,14 @@
       <c r="G45">
         <v>1.3</v>
       </c>
-      <c r="H45">
-        <v>140.16954781684899</v>
-      </c>
-      <c r="I45">
+      <c r="J45">
         <v>17.058823529411701</v>
       </c>
-      <c r="J45">
-        <v>35.896088733216502</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>11.201117318435699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.36976744186046501</v>
       </c>
@@ -32366,17 +33648,14 @@
       <c r="G46">
         <v>1.6</v>
       </c>
-      <c r="H46">
-        <v>141.780672346839</v>
-      </c>
-      <c r="I46">
+      <c r="J46">
         <v>18.7878787878787</v>
       </c>
-      <c r="J46">
-        <v>36.034968979131399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>11.445054945054901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.37093023255813901</v>
       </c>
@@ -32390,17 +33669,14 @@
       <c r="G47">
         <v>2</v>
       </c>
-      <c r="H47">
-        <v>142.746475590112</v>
-      </c>
-      <c r="I47">
+      <c r="J47">
         <v>20.248962655601598</v>
       </c>
-      <c r="J47">
-        <v>36.062461726883001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>12.4556962025316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.372093023255813</v>
       </c>
@@ -32414,17 +33690,14 @@
       <c r="G48">
         <v>2.5</v>
       </c>
-      <c r="H48">
-        <v>142.97940555206199</v>
-      </c>
-      <c r="I48">
+      <c r="J48">
         <v>22.429149797570801</v>
       </c>
-      <c r="J48">
-        <v>36.184935701163397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>7.0714285714285703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.373255813953488</v>
       </c>
@@ -32438,17 +33711,14 @@
       <c r="G49">
         <v>3</v>
       </c>
-      <c r="H49">
-        <v>143.10400278395699</v>
-      </c>
-      <c r="I49">
+      <c r="J49">
         <v>22.9437229437229</v>
       </c>
-      <c r="J49">
-        <v>36.217912150598899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>7.5833333333333304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.374418604651162</v>
       </c>
@@ -32462,17 +33732,14 @@
       <c r="G50">
         <v>4</v>
       </c>
-      <c r="H50">
-        <v>143.35547532669199</v>
-      </c>
-      <c r="I50">
+      <c r="J50">
         <v>24.135021097046401</v>
       </c>
-      <c r="J50">
-        <v>36.246351430239301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>7.9696969696969697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.376744186046511</v>
       </c>
@@ -32486,17 +33753,11 @@
       <c r="G51">
         <v>5</v>
       </c>
-      <c r="H51">
-        <v>145.387855039388</v>
-      </c>
-      <c r="I51">
+      <c r="J51">
         <v>24.806866952789701</v>
       </c>
-      <c r="J51">
-        <v>36.563706563706504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.377906976744186</v>
       </c>
@@ -32508,7 +33769,7 @@
         <v>27.123021470453761</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.38023255813953399</v>
       </c>
@@ -32520,7 +33781,7 @@
         <v>27.096688222319784</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.38255813953488299</v>
       </c>
@@ -32532,7 +33793,7 @@
         <v>27.070515543770039</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.38372093023255799</v>
       </c>
@@ -32544,7 +33805,7 @@
         <v>27.057488808481494</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.38488372093023199</v>
       </c>
@@ -32556,7 +33817,7 @@
         <v>27.044501488488557</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.38720930232558098</v>
       </c>
@@ -32568,7 +33829,7 @@
         <v>27.018644145334186</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.38837209302325498</v>
       </c>
@@ -32580,7 +33841,7 @@
         <v>27.005773652983315</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.39069767441860398</v>
       </c>
@@ -32592,7 +33853,7 @@
         <v>26.980147869507633</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.39186046511627898</v>
       </c>
@@ -32604,7 +33865,7 @@
         <v>26.967392121686146</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.39418604651162698</v>
       </c>
@@ -32616,7 +33877,7 @@
         <v>26.94199378732602</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.39534883720930197</v>
       </c>
@@ -32628,7 +33889,7 @@
         <v>26.92935075614384</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.39767441860465103</v>
       </c>
@@ -32640,7 +33901,7 @@
         <v>26.904175868827302</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.4</v>
       </c>
@@ -47050,7 +48311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -49400,17 +50661,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -49616,8 +50880,8 @@
         <v>25444.098777198626</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L26" si="6">POWER((36511/$G$18)*POWER(1.04,0.1867*POWER(A20,-0.72)),2)/C20</f>
-        <v>57001.723165447976</v>
+        <f>POWER((3651.1/$G$18)*POWER(1.04,0.1867*POWER(A20,-0.72)),2)/C20</f>
+        <v>570.0172316544797</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -49628,27 +50892,27 @@
         <v>27.6932343609</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C27" si="7">$E$33/(A21*A21)</f>
+        <f t="shared" ref="C21:C27" si="6">$E$33/(A21*A21)</f>
         <v>200.11392171524113</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D27" si="8">B21*B21*C21</f>
+        <f t="shared" ref="D21:D27" si="7">B21*B21*C21</f>
         <v>153470.41417192059</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E27" si="9">POWER(C21,0.25)*64/PI()</f>
+        <f t="shared" ref="E21:E27" si="8">POWER(C21,0.25)*64/PI()</f>
         <v>76.621284275167866</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F27" si="10">2290.4*POWER(A21,0.1629)/$G$18</f>
+        <f t="shared" ref="F21:F27" si="9">2290.4*POWER(A21,0.1629)/$G$18</f>
         <v>259.54524506814272</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G27" si="11">0.41882*POWER(A21,0.025*LN($G$18)-0.7715)</f>
+        <f t="shared" ref="G21:G27" si="10">0.41882*POWER(A21,0.025*LN($G$18)-0.7715)</f>
         <v>0.34709215503176338</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H27" si="12">F21*POWER(1.04,G21)</f>
+        <f t="shared" ref="H21:H27" si="11">F21*POWER(1.04,G21)</f>
         <v>263.10264574754797</v>
       </c>
       <c r="I21">
@@ -49664,8 +50928,8 @@
         <v>26187.542718507219</v>
       </c>
       <c r="L21">
-        <f t="shared" si="6"/>
-        <v>79490.702539721373</v>
+        <f t="shared" ref="L21:L27" si="12">POWER((3651.1/$G$18)*POWER(1.04,0.1867*POWER(A21,-0.72)),2)/C21</f>
+        <v>794.9070253972136</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -49676,27 +50940,27 @@
         <v>28.632646899000001</v>
       </c>
       <c r="C22">
+        <f t="shared" si="6"/>
+        <v>132.10645613232714</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="7"/>
-        <v>132.10645613232714</v>
-      </c>
-      <c r="D22">
+        <v>108304.63360237361</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="8"/>
-        <v>108304.63360237361</v>
-      </c>
-      <c r="E22">
+        <v>69.065492311505082</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="9"/>
-        <v>69.065492311505082</v>
-      </c>
-      <c r="F22">
+        <v>268.47438115953975</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="10"/>
-        <v>268.47438115953975</v>
-      </c>
-      <c r="G22">
+        <v>0.29914309591872984</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="11"/>
-        <v>0.29914309591872984</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="12"/>
         <v>271.64283594510766</v>
       </c>
       <c r="I22">
@@ -49712,8 +50976,8 @@
         <v>27111.604096789622</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
-        <v>120209.39927150078</v>
+        <f t="shared" si="12"/>
+        <v>1202.0939927150077</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -49724,27 +50988,27 @@
         <v>31.1582918513</v>
       </c>
       <c r="C23">
+        <f t="shared" si="6"/>
+        <v>84.548131924689386</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="7"/>
-        <v>84.548131924689386</v>
-      </c>
-      <c r="D23">
+        <v>82082.636624077393</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="8"/>
-        <v>82082.636624077393</v>
-      </c>
-      <c r="E23">
+        <v>61.774054283205778</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="9"/>
-        <v>61.774054283205778</v>
-      </c>
-      <c r="F23">
+        <v>278.41298787721269</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="10"/>
-        <v>278.41298787721269</v>
-      </c>
-      <c r="G23">
+        <v>0.2549717806174705</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="11"/>
-        <v>0.2549717806174705</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="12"/>
         <v>281.21113415534796</v>
       </c>
       <c r="I23">
@@ -49760,8 +51024,8 @@
         <v>28104.664048607799</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
-        <v>187536.35472610092</v>
+        <f t="shared" si="12"/>
+        <v>1875.363547261009</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -49772,27 +51036,27 @@
         <v>30.8423779785</v>
       </c>
       <c r="C24">
+        <f t="shared" si="6"/>
+        <v>54.110804431801206</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="7"/>
-        <v>54.110804431801206</v>
-      </c>
-      <c r="D24">
+        <v>51473.026054222784</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="8"/>
-        <v>51473.026054222784</v>
-      </c>
-      <c r="E24">
+        <v>55.252393849204076</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="9"/>
-        <v>55.252393849204076</v>
-      </c>
-      <c r="F24">
+        <v>288.71951015935019</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="10"/>
-        <v>288.71951015935019</v>
-      </c>
-      <c r="G24">
+        <v>0.21732277895828608</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="11"/>
-        <v>0.21732277895828608</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="12"/>
         <v>291.19094434253816</v>
       </c>
       <c r="I24">
@@ -49808,8 +51072,8 @@
         <v>29097.724000425969</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
-        <v>292639.13086596021</v>
+        <f t="shared" si="12"/>
+        <v>2926.3913086596021</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -49820,27 +51084,27 @@
         <v>31.306423306399999</v>
       </c>
       <c r="C25">
+        <f t="shared" si="6"/>
+        <v>37.576947522084168</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="7"/>
-        <v>37.576947522084168</v>
-      </c>
-      <c r="D25">
+        <v>36828.87092058704</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="8"/>
-        <v>36828.87092058704</v>
-      </c>
-      <c r="E25">
+        <v>50.438304112281273</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="9"/>
-        <v>50.438304112281273</v>
-      </c>
-      <c r="F25">
+        <v>297.4231419853254</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="10"/>
-        <v>297.4231419853254</v>
-      </c>
-      <c r="G25">
+        <v>0.19072694454893568</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="11"/>
-        <v>0.19072694454893568</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="12"/>
         <v>299.65634222507623</v>
       </c>
       <c r="I25">
@@ -49856,8 +51120,8 @@
         <v>29909.113060691812</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
-        <v>421008.02641925967</v>
+        <f t="shared" si="12"/>
+        <v>4210.0802641925957</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -49868,27 +51132,27 @@
         <v>32.100898765799997</v>
       </c>
       <c r="C26">
+        <f t="shared" si="6"/>
+        <v>21.137032981172347</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="7"/>
-        <v>21.137032981172347</v>
-      </c>
-      <c r="D26">
+        <v>21781.02979416318</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="8"/>
-        <v>21781.02979416318</v>
-      </c>
-      <c r="E26">
+        <v>43.680852685040698</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="9"/>
-        <v>43.680852685040698</v>
-      </c>
-      <c r="F26">
+        <v>311.69316392349964</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="10"/>
-        <v>311.69316392349964</v>
-      </c>
-      <c r="G26">
+        <v>0.15522326754033591</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="11"/>
-        <v>0.15522326754033591</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="12"/>
         <v>313.59652963309838</v>
       </c>
       <c r="I26">
@@ -49904,8 +51168,8 @@
         <v>31189.390009433399</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
-        <v>747529.52463940566</v>
+        <f t="shared" si="12"/>
+        <v>7475.2952463940564</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -49916,27 +51180,27 @@
         <v>31.402889801899999</v>
       </c>
       <c r="C27">
+        <f t="shared" si="6"/>
+        <v>13.527701107950302</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="7"/>
-        <v>13.527701107950302</v>
-      </c>
-      <c r="D27">
+        <v>13340.227298599584</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="8"/>
-        <v>13340.227298599584</v>
-      </c>
-      <c r="E27">
+        <v>39.069342367562093</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="9"/>
-        <v>39.069342367562093</v>
-      </c>
-      <c r="F27">
+        <v>323.23167929112418</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="10"/>
-        <v>323.23167929112418</v>
-      </c>
-      <c r="G27">
+        <v>0.13230307989048076</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="11"/>
-        <v>0.13230307989048076</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="12"/>
         <v>324.91329450511751</v>
       </c>
       <c r="I27">
@@ -49952,11 +51216,11 @@
         <v>32182.449961251576</v>
       </c>
       <c r="L27">
-        <f>POWER((36511/$G$18)*POWER(1.04,0.1867*POWER(A27,-0.72)),2)/C27</f>
-        <v>1167079.525553361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>11670.795255533611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>POWER(114, 4)</f>
         <v>168896016</v>
@@ -49976,6 +51240,272 @@
       <c r="E33">
         <f>D33/640000</f>
         <v>338.19252769875754</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34">
+        <f>96.5/I33</f>
+        <v>1.0477741585233442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <f>PI()*(POWER(114,4)-POWER(100,4))/640000</f>
+        <v>338.19252769875754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="4">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>32.1</v>
+      </c>
+      <c r="H38">
+        <f>PI()*POWER(F38,4)/640000</f>
+        <v>20.128895898635381</v>
+      </c>
+      <c r="I38">
+        <f>POWER(G38,2)*H38</f>
+        <v>20741.015622912884</v>
+      </c>
+      <c r="J38">
+        <f>POWER($I$35/H38,0.5)</f>
+        <v>4.0989443959144722</v>
+      </c>
+      <c r="K38">
+        <f>2290.4*POWER(J38,0.1629)/$I$33</f>
+        <v>31.293632495045884</v>
+      </c>
+      <c r="L38">
+        <f>0.41882*POWER(J38,0.25*LN($I$33)-0.7715)</f>
+        <v>0.69520147271091204</v>
+      </c>
+      <c r="M38">
+        <f>K38*POWER($I$34,L38)</f>
+        <v>32.325563271401435</v>
+      </c>
+      <c r="N38">
+        <f>H38*POWER(M38,2)</f>
+        <v>21033.529559640076</v>
+      </c>
+      <c r="O38">
+        <v>35082</v>
+      </c>
+      <c r="P38">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="5">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>31.3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H42" si="13">PI()*POWER(F39,4)/640000</f>
+        <v>30.679615757712821</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I42" si="14">POWER(G39,2)*H39</f>
+        <v>30056.512761673675</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39:J42" si="15">POWER($I$35/H39,0.5)</f>
+        <v>3.3201449606907225</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K42" si="16">2290.4*POWER(J39,0.1629)/$I$33</f>
+        <v>30.237660569108691</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39:L42" si="17">0.41882*POWER(J39,0.25*LN($I$33)-0.7715)</f>
+        <v>0.64452057759559478</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M42" si="18">K39*POWER($I$34,L39)</f>
+        <v>31.160981351246956</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:N42" si="19">H39*POWER(M39,2)</f>
+        <v>29790.114257290435</v>
+      </c>
+      <c r="O39">
+        <v>39062</v>
+      </c>
+      <c r="P39">
+        <v>49062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="5">
+        <v>55</v>
+      </c>
+      <c r="G40">
+        <v>30.83</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>44.918025430867345</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="14"/>
+        <v>42694.084581957126</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="15"/>
+        <v>2.7439214551162996</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="16"/>
+        <v>29.313147326790478</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="17"/>
+        <v>0.60186450502695044</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="18"/>
+        <v>30.148162664478129</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="19"/>
+        <v>40826.519395998068</v>
+      </c>
+      <c r="O40">
+        <v>47961</v>
+      </c>
+      <c r="P40">
+        <v>53961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="5">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>30.15</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>63.617251235193308</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="14"/>
+        <v>57829.5127609435</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="15"/>
+        <v>2.3056562227018906</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="16"/>
+        <v>28.493837134106045</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="17"/>
+        <v>0.56539246118907316</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="18"/>
+        <v>29.2556756789131</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="19"/>
+        <v>54449.659218077337</v>
+      </c>
+      <c r="O41">
+        <v>55651</v>
+      </c>
+      <c r="P41">
+        <v>55651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="5">
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>28.63</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>117.85881189482957</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="14"/>
+        <v>96606.145571637026</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="15"/>
+        <v>1.6939515105564911</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="16"/>
+        <v>27.098151940826401</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="17"/>
+        <v>0.50611933779090723</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="18"/>
+        <v>27.745818431671516</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="19"/>
+        <v>90731.301071118665</v>
+      </c>
+      <c r="O42">
+        <v>71902</v>
+      </c>
+      <c r="P42">
+        <v>57902</v>
       </c>
     </row>
   </sheetData>

--- a/дисертация/изыскания/W/iteration 2.xlsx
+++ b/дисертация/изыскания/W/iteration 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>w=2; l=1250</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>ansys</t>
+  </si>
+  <si>
+    <t>множитель разницы</t>
+  </si>
+  <si>
+    <t>для отношений длин равных 2</t>
   </si>
 </sst>
 </file>
@@ -7929,7 +7935,7 @@
             <c:v>ansys</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="66675" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -7939,12 +7945,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -8004,6 +8010,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0BA6-4B80-B50C-54A582949FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>с поправочным</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$Q$38:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34312.528728022538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40928.707348465556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48020.661597218357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55575.783566926519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72031.805409468259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8862-44A5-AC87-8D9F93E603D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8302,6 +8393,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="637987336"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -8350,6 +8442,458 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поправочный коэффициент</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37293022747156607"/>
+                  <c:y val="9.2173374161563133E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$R$38:$R$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6679083698494739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3112403551940217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1747511350355591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0220633296732153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79247182781651571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9E5-4A9C-BEE8-A2D59785E10B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417117752"/>
+        <c:axId val="417115784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417117752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>штока,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417115784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417115784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417117752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8428,144 +8972,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>школа!$A$1:$A$21</c:f>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>школа!$B$1:$B$21</c:f>
+              <c:f>'повторный анализ'!$N$67:$N$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1.2039728043259361</c:v>
+                  <c:v>51564.982711421326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.916290731874155</c:v>
+                  <c:v>71117.988737791064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.69314718055994529</c:v>
+                  <c:v>95227.712520081099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.51082562376599072</c:v>
+                  <c:v>124419.87524522828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.35667494393873245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.22314355131420971</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.10536051565782628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5310179804324935E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18232155679395459</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26236426446749106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33647223662121289</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.40546510810816438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.47000362924573563</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.53062825106217038</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.58778666490211906</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.64185388617239469</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.69314718055994529</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74193734472937733</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78845736036427028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.83290912293510388</c:v>
+                  <c:v>200205.97407415297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8573,7 +9021,174 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8844-4131-A081-E81DF6FEA371}"/>
+              <c16:uniqueId val="{00000000-9164-4116-A491-00334063F24C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$O$67:$O$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9164-4116-A491-00334063F24C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>марутов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$I$67:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62332.785908824786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93146.750501468821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124365.53143573868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163003.14585164277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223042.45391232966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9164-4116-A491-00334063F24C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8585,13 +9200,163 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451229624"/>
-        <c:axId val="451226344"/>
+        <c:axId val="420331896"/>
+        <c:axId val="420332552"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>поправочный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37019203849518811"/>
+                  <c:y val="-0.21764326334208223"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$S$67:$S$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-16482.982711421326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12055.988737791064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27266.712520081099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-28768.875245228279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-72303.974074152968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9164-4116-A491-00334063F24C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="425416584"/>
+        <c:axId val="425416912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451229624"/>
+        <c:axId val="420331896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8646,12 +9411,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451226344"/>
+        <c:crossAx val="420332552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451226344"/>
+        <c:axId val="420332552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8708,7 +9473,531 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451229624"/>
+        <c:crossAx val="420331896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="425416912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425416584"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="425416584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="425416912"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>поправочный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> коэффициент</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>поправочный</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37019203849518811"/>
+                  <c:y val="-0.21764326334208223"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$S$67:$S$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-16482.982711421326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12055.988737791064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27266.712520081099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-28768.875245228279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-72303.974074152968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-293D-4D86-8908-5547FBFA0000}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420331896"/>
+        <c:axId val="420332552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420331896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>штока, мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420332552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420332552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420331896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9233,6 +10522,414 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="450915376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>школа!$A$1:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>школа!$B$1:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.2039728043259361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.916290731874155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.51082562376599072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.35667494393873245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.22314355131420971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10536051565782628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5310179804324935E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18232155679395459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26236426446749106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33647223662121289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40546510810816438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47000362924573563</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53062825106217038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58778666490211906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64185388617239469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74193734472937733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78845736036427028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83290912293510388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8844-4131-A081-E81DF6FEA371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="451229624"/>
+        <c:axId val="451226344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="451229624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451226344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="451226344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451229624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23187,7 +24884,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -28151,7 +29968,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32788,6 +36153,98 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -50661,10 +54118,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P42"/>
+  <dimension ref="A2:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50802,7 +54259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -50813,7 +54270,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -50835,8 +54292,11 @@
       <c r="L19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.1000000000000001</v>
       </c>
@@ -50883,8 +54343,11 @@
         <f>POWER((3651.1/$G$18)*POWER(1.04,0.1867*POWER(A20,-0.72)),2)/C20</f>
         <v>570.0172316544797</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>36.849021941300002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.3</v>
       </c>
@@ -50931,8 +54394,11 @@
         <f t="shared" ref="L21:L27" si="12">POWER((3651.1/$G$18)*POWER(1.04,0.1867*POWER(A21,-0.72)),2)/C21</f>
         <v>794.9070253972136</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>40.413069198099997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.6</v>
       </c>
@@ -50979,8 +54445,11 @@
         <f t="shared" si="12"/>
         <v>1202.0939927150077</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>43.502351971800003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -51027,8 +54496,11 @@
         <f t="shared" si="12"/>
         <v>1875.363547261009</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>50.133859321499997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.5</v>
       </c>
@@ -51075,8 +54547,11 @@
         <f t="shared" si="12"/>
         <v>2926.3913086596021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>51.618648202599999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -51123,8 +54598,11 @@
         <f t="shared" si="12"/>
         <v>4210.0802641925957</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>55.100925861299999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -51171,8 +54649,11 @@
         <f t="shared" si="12"/>
         <v>7475.2952463940564</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>55.647837479700001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -51219,8 +54700,11 @@
         <f t="shared" si="12"/>
         <v>11670.795255533611</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>54.0212162101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>POWER(114, 4)</f>
         <v>168896016</v>
@@ -51248,7 +54732,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H34" s="6" t="s">
         <v>22</v>
       </c>
@@ -51257,7 +54741,7 @@
         <v>1.0477741585233442</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
         <v>19</v>
       </c>
@@ -51266,7 +54750,7 @@
         <v>338.19252769875754</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>16</v>
       </c>
@@ -51297,8 +54781,11 @@
       <c r="O37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="4">
         <v>45</v>
       </c>
@@ -51339,8 +54826,16 @@
       <c r="P38">
         <v>45082</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <f>N38*807.75*POWER(F38,-1.63)</f>
+        <v>34312.528728022538</v>
+      </c>
+      <c r="R38">
+        <f>O38/N38</f>
+        <v>1.6679083698494739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F39" s="5">
         <v>50</v>
       </c>
@@ -51381,8 +54876,16 @@
       <c r="P39">
         <v>49062</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q42" si="20">N39*807.75*POWER(F39,-1.63)</f>
+        <v>40928.707348465556</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:R42" si="21">O39/N39</f>
+        <v>1.3112403551940217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" s="5">
         <v>55</v>
       </c>
@@ -51423,8 +54926,16 @@
       <c r="P40">
         <v>53961</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <f t="shared" si="20"/>
+        <v>48020.661597218357</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="21"/>
+        <v>1.1747511350355591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F41" s="5">
         <v>60</v>
       </c>
@@ -51465,8 +54976,16 @@
       <c r="P41">
         <v>55651</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <f t="shared" si="20"/>
+        <v>55575.783566926519</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="21"/>
+        <v>1.0220633296732153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F42" s="5">
         <v>70</v>
       </c>
@@ -51507,10 +55026,402 @@
       <c r="P42">
         <v>57902</v>
       </c>
+      <c r="Q42">
+        <f t="shared" si="20"/>
+        <v>72031.805409468259</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="21"/>
+        <v>0.79247182781651571</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63">
+        <f>96.5/I62</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64">
+        <f>PI()*(POWER(114,4)-POWER(100,4))/640000</f>
+        <v>338.19252769875754</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D66">
+        <v>36.849021941300002</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" t="s">
+        <v>25</v>
+      </c>
+      <c r="R66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1.3</v>
+      </c>
+      <c r="D67">
+        <v>40.413069198099997</v>
+      </c>
+      <c r="F67" s="4">
+        <v>45</v>
+      </c>
+      <c r="G67">
+        <v>55.647837479700001</v>
+      </c>
+      <c r="H67">
+        <f>PI()*POWER(F67,4)/640000</f>
+        <v>20.128895898635381</v>
+      </c>
+      <c r="I67">
+        <f>POWER(G67,2)*H67</f>
+        <v>62332.785908824786</v>
+      </c>
+      <c r="J67">
+        <f>POWER($I$64/H67,0.5)</f>
+        <v>4.0989443959144722</v>
+      </c>
+      <c r="K67">
+        <f>2290.4*POWER(J67,0.1629)/$I$62</f>
+        <v>59.733545135621256</v>
+      </c>
+      <c r="L67">
+        <f>0.41882*POWER(J67,0.25*LN($I$62)-0.7715)</f>
+        <v>0.55346576941917036</v>
+      </c>
+      <c r="M67">
+        <f>K67*POWER($I$63,L67)</f>
+        <v>87.66537374745441</v>
+      </c>
+      <c r="N67">
+        <f>H67*POWER(M67,2)/3</f>
+        <v>51564.982711421326</v>
+      </c>
+      <c r="O67">
+        <v>35082</v>
+      </c>
+      <c r="P67">
+        <v>45082</v>
+      </c>
+      <c r="Q67">
+        <f>N67*807.75*POWER(F67,-1.63)</f>
+        <v>84119.260423161541</v>
+      </c>
+      <c r="R67">
+        <f>O67/N67</f>
+        <v>0.68034542348890492</v>
+      </c>
+      <c r="S67">
+        <f>O67-N67</f>
+        <v>-16482.982711421326</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1.6</v>
+      </c>
+      <c r="D68">
+        <v>43.502351971800003</v>
+      </c>
+      <c r="F68" s="5">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>55.100925861299999</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H71" si="22">PI()*POWER(F68,4)/640000</f>
+        <v>30.679615757712821</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I71" si="23">POWER(G68,2)*H68</f>
+        <v>93146.750501468821</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J71" si="24">POWER($I$64/H68,0.5)</f>
+        <v>3.3201449606907225</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K71" si="25">2290.4*POWER(J68,0.1629)/$I$62</f>
+        <v>57.71789716922094</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L71" si="26">0.41882*POWER(J68,0.25*LN($I$62)-0.7715)</f>
+        <v>0.530893613727764</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:M71" si="27">K68*POWER($I$63,L68)</f>
+        <v>83.392194444739786</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:N71" si="28">H68*POWER(M68,2)/3</f>
+        <v>71117.988737791064</v>
+      </c>
+      <c r="O68">
+        <v>59062</v>
+      </c>
+      <c r="P68">
+        <v>49062</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q71" si="29">N68*807.75*POWER(F68,-1.63)</f>
+        <v>97709.170334859577</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:R71" si="30">O68/N68</f>
+        <v>0.83047905386862142</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S71" si="31">O68-N68</f>
+        <v>-12055.988737791064</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>50.133859321499997</v>
+      </c>
+      <c r="F69" s="5">
+        <v>55</v>
+      </c>
+      <c r="G69">
+        <v>52.618648202599999</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="22"/>
+        <v>44.918025430867345</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="23"/>
+        <v>124365.53143573868</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="24"/>
+        <v>2.7439214551162996</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="25"/>
+        <v>55.953178627925453</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="26"/>
+        <v>0.51126869102072803</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="27"/>
+        <v>79.750235670110243</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="28"/>
+        <v>95227.712520081099</v>
+      </c>
+      <c r="O69">
+        <v>67961</v>
+      </c>
+      <c r="P69">
+        <v>53961</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="29"/>
+        <v>112008.0238349257</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="30"/>
+        <v>0.71366830307583784</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="31"/>
+        <v>-27266.712520081099</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>2.5</v>
+      </c>
+      <c r="D70">
+        <v>51.618648202599999</v>
+      </c>
+      <c r="F70" s="5">
+        <v>60</v>
+      </c>
+      <c r="G70">
+        <v>50.618648202599999</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="22"/>
+        <v>63.617251235193308</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="23"/>
+        <v>163003.14585164277</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="24"/>
+        <v>2.3056562227018906</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="25"/>
+        <v>54.389272539920547</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="26"/>
+        <v>0.49398667911557431</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="27"/>
+        <v>76.598110728379226</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="28"/>
+        <v>124419.87524522828</v>
+      </c>
+      <c r="O70">
+        <v>95651</v>
+      </c>
+      <c r="P70">
+        <v>55651</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="29"/>
+        <v>126993.119100314</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="30"/>
+        <v>0.76877588738514979</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="31"/>
+        <v>-28768.875245228279</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>55.100925861299999</v>
+      </c>
+      <c r="F71" s="5">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>43.502351971800003</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="22"/>
+        <v>117.85881189482957</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="23"/>
+        <v>223042.45391232966</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="24"/>
+        <v>1.6939515105564911</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="25"/>
+        <v>51.725177072541172</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="26"/>
+        <v>0.46479131707826954</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="27"/>
+        <v>71.386832812809985</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="28"/>
+        <v>200205.97407415297</v>
+      </c>
+      <c r="O71">
+        <v>127902</v>
+      </c>
+      <c r="P71">
+        <v>57902</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="29"/>
+        <v>158944.02037747201</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="30"/>
+        <v>0.63885206518676219</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="31"/>
+        <v>-72303.974074152968</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>55.647837479700001</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>54.0212162101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/дисертация/изыскания/W/iteration 2.xlsx
+++ b/дисертация/изыскания/W/iteration 2.xlsx
@@ -7754,7 +7754,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17615048118985127"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78573840769903747"/>
+          <c:h val="0.73218394575678036"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -7930,7 +7940,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>ansys</c:v>
           </c:tx>
@@ -8015,7 +8025,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>с поправочным</c:v>
           </c:tx>
@@ -8109,105 +8119,6 @@
         <c:axId val="546434056"/>
         <c:axId val="546434384"/>
       </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>коэффициент</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'повторный анализ'!$J$38:$J$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.0989443959144722</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3201449606907225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7439214551162996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3056562227018906</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6939515105564911</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0BA6-4B80-B50C-54A582949FA2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="637986024"/>
-        <c:axId val="637987336"/>
-      </c:scatterChart>
       <c:valAx>
         <c:axId val="546434056"/>
         <c:scaling>
@@ -8230,6 +8141,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>штока, мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8292,6 +8269,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ркрит,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> кг</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8333,69 +8370,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="637987336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="637986024"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="637986024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637987336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8404,6 +8378,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21066666666666659"/>
+          <c:y val="9.3748906386701636E-2"/>
+          <c:w val="0.24766666666666667"/>
+          <c:h val="0.31250218722659673"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8907,45 +8922,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17615048118985127"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78412729658792646"/>
+          <c:h val="0.73218394575678036"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>выведенная формула</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -9028,6 +9026,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>ansys</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -9203,155 +9204,6 @@
         <c:axId val="420331896"/>
         <c:axId val="420332552"/>
       </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>поправочный</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.37019203849518811"/>
-                  <c:y val="-0.21764326334208223"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'повторный анализ'!$S$67:$S$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-16482.982711421326</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-12055.988737791064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-27266.712520081099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-28768.875245228279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-72303.974074152968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9164-4116-A491-00334063F24C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="425416584"/>
-        <c:axId val="425416912"/>
-      </c:scatterChart>
       <c:valAx>
         <c:axId val="420331896"/>
         <c:scaling>
@@ -9374,6 +9226,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>штока, мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9436,6 +9354,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ркрит,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> кг</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9477,68 +9455,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="425416912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="425416584"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="425416584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425416912"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9547,6 +9463,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19238888888888886"/>
+          <c:y val="6.7996864975211443E-2"/>
+          <c:w val="0.31383333333333335"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10571,6 +10528,1359 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17615048118985127"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78291885389326332"/>
+          <c:h val="0.73218394575678036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>марутов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$I$38:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20741.015622912884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30056.512761673675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42694.084581957126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57829.5127609435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96606.145571637026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56AC-4674-8263-5EC73A4FCA37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>полученная формула</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$N$38:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21033.529559640076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29790.114257290435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40826.519395998068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54449.659218077337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90731.301071118665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56AC-4674-8263-5EC73A4FCA37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ansys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$O$38:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-56AC-4674-8263-5EC73A4FCA37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="546434056"/>
+        <c:axId val="546434384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="546434056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="43"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>штока, мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546434384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="546434384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ркрит,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> кг</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546434056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24673600174978128"/>
+          <c:y val="0.16058945756780404"/>
+          <c:w val="0.30881955380577431"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17615048118985127"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78412729658792646"/>
+          <c:h val="0.73218394575678036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>выведенная формула</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$N$67:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51564.982711421326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71117.988737791064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95227.712520081099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124419.87524522828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200205.97407415297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C70-4762-9B0D-04C25D745FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ansys</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="60325" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$O$67:$O$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C70-4762-9B0D-04C25D745FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>марутов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$I$67:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62332.785908824786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93146.750501468821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124365.53143573868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163003.14585164277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223042.45391232966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C70-4762-9B0D-04C25D745FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>с поправочным</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$F$67:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'повторный анализ'!$T$67:$T$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45352.982711421326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53467.988737791064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66139.712520081099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83893.875245228279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136803.97407415297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C70-4762-9B0D-04C25D745FF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420331896"/>
+        <c:axId val="420332552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420331896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>штока, мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420332552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420332552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ркрит,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> кг</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420331896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19238888888888886"/>
+          <c:y val="6.7996864975211443E-2"/>
+          <c:w val="0.31383333333333335"/>
+          <c:h val="0.31250218722659673"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -25044,6 +26354,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -31517,6 +32907,1038 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -36245,6 +38667,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -54118,10 +56604,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S73"/>
+  <dimension ref="A2:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55061,7 +57547,7 @@
         <v>338.19252769875754</v>
       </c>
     </row>
-    <row r="66" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>1.1000000000000001</v>
       </c>
@@ -55102,7 +57588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>1.3</v>
       </c>
@@ -55161,8 +57647,12 @@
         <f>O67-N67</f>
         <v>-16482.982711421326</v>
       </c>
-    </row>
-    <row r="68" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <f>-2287.6*F67+96730+N67</f>
+        <v>45352.982711421326</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>1.6</v>
       </c>
@@ -55221,8 +57711,12 @@
         <f t="shared" ref="S68:S71" si="31">O68-N68</f>
         <v>-12055.988737791064</v>
       </c>
-    </row>
-    <row r="69" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <f t="shared" ref="T68:T71" si="32">-2287.6*F68+96730+N68</f>
+        <v>53467.988737791064</v>
+      </c>
+    </row>
+    <row r="69" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>2</v>
       </c>
@@ -55281,8 +57775,12 @@
         <f t="shared" si="31"/>
         <v>-27266.712520081099</v>
       </c>
-    </row>
-    <row r="70" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <f t="shared" si="32"/>
+        <v>66139.712520081099</v>
+      </c>
+    </row>
+    <row r="70" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>2.5</v>
       </c>
@@ -55341,8 +57839,12 @@
         <f t="shared" si="31"/>
         <v>-28768.875245228279</v>
       </c>
-    </row>
-    <row r="71" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <f t="shared" si="32"/>
+        <v>83893.875245228279</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>3</v>
       </c>
@@ -55401,8 +57903,12 @@
         <f t="shared" si="31"/>
         <v>-72303.974074152968</v>
       </c>
-    </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <f t="shared" si="32"/>
+        <v>136803.97407415297</v>
+      </c>
+    </row>
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>4</v>
       </c>
@@ -55410,7 +57916,7 @@
         <v>55.647837479700001</v>
       </c>
     </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>5</v>
       </c>
